--- a/Statistics/Master/2019/Quarterly/Spring 2019.xlsx
+++ b/Statistics/Master/2019/Quarterly/Spring 2019.xlsx
@@ -20,18 +20,6 @@
     <sheet name="Week of June 3, 2019" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Week of June 10, 2019" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Week of June 17, 2019" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Week of June 24, 2019" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Week of July 1, 2019" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Week of July 15, 2019" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Week of July 22, 2019" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Week of July 29, 2019" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Week of July 8, 2019" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Week of August 12, 2019" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Week of August 19, 2019" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Week of August 26, 2019" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Week of August 5, 2019" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Week of September 2, 2019" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Week of September 9, 2019" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="145621" fullCalcOnLoad="1"/>
@@ -272,7 +260,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -416,7 +404,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -560,7 +548,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -704,7 +692,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -848,7 +836,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -992,7 +980,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1063,406 +1051,6 @@
       <legendPos val="b"/>
       <layout/>
       <overlay val="0"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of June 24, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of June 24, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of June 24, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of June 24, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of June 24, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of June 24, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 1, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 1, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 1, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 1, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 1, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 1, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 15, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 15, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 15, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 15, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 15, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 15, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 22, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 22, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 22, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 22, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 22, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 22, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 29, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 29, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 29, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 29, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 29, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 29, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1536,7 +1124,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1607,566 +1195,6 @@
       <legendPos val="b"/>
       <layout/>
       <overlay val="0"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 8, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 8, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 8, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of July 8, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of July 8, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of July 8, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of August 12, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of August 12, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of August 12, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of August 12, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of August 12, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of August 12, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of August 19, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of August 19, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of August 19, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of August 19, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of August 19, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of August 19, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of August 26, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of August 26, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of August 26, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of August 26, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of August 26, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of August 26, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of August 5, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of August 5, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of August 5, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of August 5, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of August 5, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of August 5, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of September 2, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of September 2, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of September 2, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of September 2, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of September 2, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of September 2, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t/>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Week of September 9, 2019'!B20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of September 9, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of September 9, 2019'!$B$21:$B$23</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Week of September 9, 2019'!C20</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Week of September 9, 2019'!$B$9:$E$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Week of September 9, 2019'!$C$21:$C$23</f>
-            </numRef>
-          </val>
-        </ser>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2240,7 +1268,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2384,7 +1412,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2528,7 +1556,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2672,7 +1700,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2816,7 +1844,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2960,7 +1988,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3104,7 +2132,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3374,141 +2402,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
@@ -3538,195 +2431,6 @@
     </graphicFrame>
     <clientData/>
   </twoCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -6958,1646 +5662,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -9076,2302 +6140,6 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row customHeight="1" ht="18.75" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="K1" s="13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Parents</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>SUM(B6:D6)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>SUM(E6:G6)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>SUM(H6:J6)</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>SUM(K6:M6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Walk-Ins</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>B6</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>E6</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>H6</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>K6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Phones</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16">
-        <f>C6</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>F6</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>I6</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>L6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>Emails</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>D6</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>J6</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>M6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="98"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
